--- a/Data_EE Downward Causation_Conjoint_Wave2.xlsx
+++ b/Data_EE Downward Causation_Conjoint_Wave2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johannes.haehnlein\Desktop\Johannes Haehnlein\19_PROMOTION\01_STUDIEN\Studie 2 - Conjoint\Data\R Repository\EE_Downward-Causation_Entrepreneurship-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D908BC8-9161-4C0D-8BB6-8A498B646322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB83E0E-70CC-42DB-8242-D29E17DF642D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Studie zur Stärkung von Gründun" sheetId="1" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -1331,13 +1331,13 @@
         <v>3</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -2042,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -2511,10 +2511,10 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3691,13 +3691,13 @@
         <v>20</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>6</v>
@@ -4163,13 +4163,13 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>6</v>
@@ -4399,10 +4399,10 @@
         <v>4</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -5340,10 +5340,10 @@
         <v>13</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -5579,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -5812,10 +5812,10 @@
         <v>4</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -6051,10 +6051,10 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>6</v>
@@ -6753,13 +6753,13 @@
         <v>4</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>6</v>
@@ -6989,13 +6989,13 @@
         <v>15</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>6</v>
@@ -7225,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -7461,10 +7461,10 @@
         <v>7000</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -7697,7 +7697,7 @@
         <v>11</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -7933,13 +7933,13 @@
         <v>9</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>6</v>
@@ -8169,13 +8169,13 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>6</v>
@@ -8405,10 +8405,10 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -8877,7 +8877,7 @@
         <v>5</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -9113,10 +9113,10 @@
         <v>2</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -10057,10 +10057,10 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>6</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -10526,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -11467,10 +11467,10 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>6</v>
@@ -11700,13 +11700,13 @@
         <v>6</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>6</v>
@@ -11936,10 +11936,10 @@
         <v>3</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -12175,10 +12175,10 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>6</v>
@@ -12414,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="N50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <v>6</v>
@@ -12650,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <v>6</v>
@@ -12880,13 +12880,13 @@
         <v>14</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>1</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>6</v>
@@ -13116,10 +13116,10 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -13352,13 +13352,13 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54">
         <v>6</v>
@@ -13591,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -13827,7 +13827,7 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -14057,7 +14057,7 @@
         <v>3</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -14532,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O59">
         <v>6</v>
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O60">
         <v>6</v>
@@ -14998,13 +14998,13 @@
         <v>50</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>6</v>
@@ -15234,10 +15234,10 @@
         <v>7</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -15470,13 +15470,13 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>6</v>
@@ -15706,13 +15706,13 @@
         <v>4</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O64">
         <v>6</v>
@@ -16178,7 +16178,7 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -16411,13 +16411,13 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>6</v>
@@ -16647,13 +16647,13 @@
         <v>3</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>6</v>
@@ -16883,7 +16883,7 @@
         <v>7</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -17122,7 +17122,7 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>6</v>
@@ -17352,7 +17352,7 @@
         <v>7</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>1</v>
@@ -18066,7 +18066,7 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O74">
         <v>6</v>
@@ -18296,7 +18296,7 @@
         <v>32</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -18535,10 +18535,10 @@
         <v>1</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O76">
         <v>6</v>
@@ -19007,7 +19007,7 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -19476,13 +19476,13 @@
         <v>38</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <v>1</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O80">
         <v>6</v>
@@ -19951,7 +19951,7 @@
         <v>1</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -20187,7 +20187,7 @@
         <v>1</v>
       </c>
       <c r="M83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -20656,7 +20656,7 @@
         <v>15</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -20892,10 +20892,10 @@
         <v>5</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -21134,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O87">
         <v>6</v>
@@ -21600,7 +21600,7 @@
         <v>34</v>
       </c>
       <c r="L89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -21842,7 +21842,7 @@
         <v>1</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O90">
         <v>6</v>
@@ -22078,7 +22078,7 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O91" t="s">
         <v>63</v>
@@ -22314,7 +22314,7 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <v>6</v>
@@ -22550,7 +22550,7 @@
         <v>1</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O93">
         <v>6</v>
@@ -22783,7 +22783,7 @@
         <v>1</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         <v>4</v>
       </c>
       <c r="L95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M95">
         <v>1</v>
@@ -23252,10 +23252,10 @@
         <v>1</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>6</v>
@@ -23485,13 +23485,13 @@
         <v>17</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O97">
         <v>6</v>
@@ -23721,13 +23721,13 @@
         <v>2</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>6</v>
@@ -23960,7 +23960,7 @@
         <v>1</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -24193,13 +24193,13 @@
         <v>5</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100">
         <v>6</v>
@@ -24429,7 +24429,7 @@
         <v>6</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M101">
         <v>1</v>
@@ -24662,13 +24662,13 @@
         <v>60</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O102">
         <v>6</v>
@@ -24898,13 +24898,13 @@
         <v>8</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O103">
         <v>6</v>
@@ -25137,10 +25137,10 @@
         <v>1</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O104">
         <v>6</v>
@@ -25370,13 +25370,13 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M105">
         <v>1</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O105">
         <v>6</v>
@@ -25606,13 +25606,13 @@
         <v>3</v>
       </c>
       <c r="L106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O106">
         <v>6</v>
@@ -25848,7 +25848,7 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O107">
         <v>6</v>
@@ -26075,13 +26075,13 @@
         <v>11</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M108">
         <v>1</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O108">
         <v>6</v>
@@ -26311,13 +26311,13 @@
         <v>1</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O109">
         <v>6</v>
@@ -26547,13 +26547,13 @@
         <v>2</v>
       </c>
       <c r="L110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O110">
         <v>6</v>
@@ -26783,13 +26783,13 @@
         <v>2</v>
       </c>
       <c r="L111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M111">
         <v>1</v>
       </c>
       <c r="N111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O111">
         <v>6</v>
@@ -27022,10 +27022,10 @@
         <v>1</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O112">
         <v>6</v>
